--- a/biology/Zoologie/Gastrophryne_olivacea/Gastrophryne_olivacea.xlsx
+++ b/biology/Zoologie/Gastrophryne_olivacea/Gastrophryne_olivacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gastrophryne olivacea est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le centre-Sud des États-Unis et dans le nord du Mexique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le centre-Sud des États-Unis et dans le nord du Mexique,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son dos est olive avec des taches noires. Ses flancs sont marbrés de brun. Son ventre est jaune uniforme.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, dérivé du latin oliva, « olive », lui a été donné en référence à sa couleur.
 </t>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microhyla mazatlanensis Taylor, 1943 a été relevé de sa synonymie avec Gastrophryne olivacea par Streicher, Cox, Campbell, Smith &amp; de Sá en 2012[3] où il avait été placé par Hecht &amp; Matalas en 1946[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microhyla mazatlanensis Taylor, 1943 a été relevé de sa synonymie avec Gastrophryne olivacea par Streicher, Cox, Campbell, Smith &amp; de Sá en 2012 où il avait été placé par Hecht &amp; Matalas en 1946.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hallowell, 1856 : Notice of a Collection of Reptiles from Kansas and Nebraska, presented to the Academy of Natural Sciences. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 8, p. 238-253 (texte intégral).
 Girard, 1859 : Herpetological notices. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 11, p. 169-170 (texte intégral).
